--- a/sharedata/exceldata/excel/all/R-日常活跃任务表.xlsx
+++ b/sharedata/exceldata/excel/all/R-日常活跃任务表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\excel\all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\黑帮_国内\exceldata\sharedata\exceldata\excel\all\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27108" windowHeight="10872"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27108" windowHeight="10872" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="日常活跃任务表" sheetId="9" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="255">
   <si>
     <t>填写备注</t>
   </si>
@@ -627,10 +627,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>好友送兴奋度</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>叛军攻打</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -721,9 +717,6 @@
     <t>日活装备精炼</t>
   </si>
   <si>
-    <t>日活好友送兴奋度</t>
-  </si>
-  <si>
     <t>日活叛军攻打</t>
   </si>
   <si>
@@ -959,10 +952,6 @@
   </si>
   <si>
     <t>分享叛军%s次</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>增送%s位好友兴奋度</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1109,6 +1098,22 @@
   <si>
     <t>叛军</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友送礼物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>增送%s位好友礼物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>日活好友送礼物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友送礼物</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2390,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2438,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="25" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -2527,7 +2532,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I5" s="26" t="s">
         <v>7</v>
@@ -2557,7 +2562,7 @@
         <v>69</v>
       </c>
       <c r="J6" s="32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2572,10 +2577,10 @@
         <v>124</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G7" s="35">
         <v>0</v>
@@ -2584,10 +2589,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2602,10 +2607,10 @@
         <v>125</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G8" s="35">
         <v>0</v>
@@ -2614,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2632,10 +2637,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G9" s="35">
         <v>0</v>
@@ -2644,7 +2649,7 @@
         <v>9</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>103</v>
@@ -2662,10 +2667,10 @@
         <v>34</v>
       </c>
       <c r="E10" s="38" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="35">
         <v>0</v>
@@ -2674,7 +2679,7 @@
         <v>9</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>121</v>
@@ -2686,16 +2691,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G11" s="35">
         <v>0</v>
@@ -2704,7 +2709,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>121</v>
@@ -2716,16 +2721,16 @@
         <v>6</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>75</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G12" s="35">
         <v>0</v>
@@ -2734,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J12" s="36" t="s">
         <v>121</v>
@@ -2746,16 +2751,16 @@
         <v>7</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>73</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G13" s="35">
         <v>0</v>
@@ -2764,10 +2769,10 @@
         <v>15</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2776,16 +2781,16 @@
         <v>8</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" s="35">
         <v>0</v>
@@ -2794,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="I14" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2806,16 +2811,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G15" s="35">
         <v>15</v>
@@ -2824,10 +2829,10 @@
         <v>3</v>
       </c>
       <c r="I15" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2836,16 +2841,16 @@
         <v>10</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G16" s="35">
         <v>0</v>
@@ -2854,10 +2859,10 @@
         <v>10</v>
       </c>
       <c r="I16" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -2872,10 +2877,10 @@
         <v>48</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G17" s="35">
         <v>0</v>
@@ -2884,7 +2889,7 @@
         <v>20</v>
       </c>
       <c r="I17" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>108</v>
@@ -2896,16 +2901,16 @@
         <v>12</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G18" s="35">
         <v>8</v>
@@ -2914,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>105</v>
@@ -2926,16 +2931,16 @@
         <v>13</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>45</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G19" s="35">
         <v>15</v>
@@ -2944,10 +2949,10 @@
         <v>5</v>
       </c>
       <c r="I19" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J19" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2956,16 +2961,16 @@
         <v>14</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G20" s="35">
         <v>10</v>
@@ -2974,7 +2979,7 @@
         <v>35</v>
       </c>
       <c r="I20" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J20" s="36" t="s">
         <v>106</v>
@@ -2986,16 +2991,16 @@
         <v>15</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>46</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G21" s="35">
         <v>20</v>
@@ -3004,7 +3009,7 @@
         <v>5</v>
       </c>
       <c r="I21" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J21" s="36" t="s">
         <v>111</v>
@@ -3016,16 +3021,16 @@
         <v>16</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D22" s="33" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="35">
         <v>11</v>
@@ -3034,10 +3039,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J22" s="36" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3046,16 +3051,16 @@
         <v>17</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" s="35" t="s">
         <v>100</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G23" s="35">
         <v>24</v>
@@ -3064,7 +3069,7 @@
         <v>15</v>
       </c>
       <c r="I23" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J23" s="36" t="s">
         <v>109</v>
@@ -3076,16 +3081,16 @@
         <v>18</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>118</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G24" s="35">
         <v>28</v>
@@ -3094,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J24" s="36" t="s">
         <v>110</v>
@@ -3106,16 +3111,16 @@
         <v>19</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G25" s="35">
         <v>25</v>
@@ -3124,7 +3129,7 @@
         <v>5</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J25" s="36" t="s">
         <v>104</v>
@@ -3136,16 +3141,16 @@
         <v>20</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" s="33" t="s">
         <v>119</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G26" s="35">
         <v>30</v>
@@ -3154,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>107</v>
@@ -3166,16 +3171,16 @@
         <v>21</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D27" s="33" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G27" s="35">
         <v>12</v>
@@ -3184,10 +3189,10 @@
         <v>1</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J27" s="36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -3196,16 +3201,16 @@
         <v>22</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>120</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G28" s="38">
         <v>0</v>
@@ -3214,10 +3219,10 @@
         <v>3</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J28" s="36" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -3226,16 +3231,16 @@
         <v>23</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D29" s="38" t="s">
         <v>126</v>
       </c>
       <c r="E29" s="38" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="38">
         <v>24</v>
@@ -3244,7 +3249,7 @@
         <v>3</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J29" s="36" t="s">
         <v>109</v>
@@ -3256,16 +3261,16 @@
         <v>24</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D30" s="38" t="s">
         <v>127</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G30" s="38">
         <v>28</v>
@@ -3274,10 +3279,10 @@
         <v>2</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -3286,16 +3291,16 @@
         <v>25</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D31" s="38" t="s">
         <v>128</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="38">
         <v>24</v>
@@ -3304,10 +3309,10 @@
         <v>2</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -3316,16 +3321,16 @@
         <v>26</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D32" s="38" t="s">
         <v>129</v>
       </c>
       <c r="E32" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="38">
         <v>31</v>
@@ -3334,10 +3339,10 @@
         <v>2</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -3346,16 +3351,16 @@
         <v>27</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="38" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>221</v>
+        <v>252</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G33" s="38">
         <v>0</v>
@@ -3363,11 +3368,11 @@
       <c r="H33" s="38">
         <v>2</v>
       </c>
-      <c r="I33" s="36" t="s">
-        <v>160</v>
+      <c r="I33" s="40" t="s">
+        <v>253</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -3376,16 +3381,16 @@
         <v>28</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G34" s="38">
         <v>35</v>
@@ -3394,10 +3399,10 @@
         <v>2</v>
       </c>
       <c r="I34" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J34" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -3406,16 +3411,16 @@
         <v>29</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D35" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="F35" s="40" t="s">
         <v>132</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="F35" s="40" t="s">
-        <v>133</v>
       </c>
       <c r="G35" s="38">
         <v>35</v>
@@ -3424,10 +3429,10 @@
         <v>2</v>
       </c>
       <c r="I35" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J35" s="41" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -3442,10 +3447,10 @@
         <v>123</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F36" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G36" s="40">
         <v>30</v>
@@ -3454,10 +3459,10 @@
         <v>2</v>
       </c>
       <c r="I36" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J36" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
@@ -3472,10 +3477,10 @@
         <v>123</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G37" s="40">
         <v>50</v>
@@ -3484,10 +3489,10 @@
         <v>3</v>
       </c>
       <c r="I37" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J37" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -3502,10 +3507,10 @@
         <v>123</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G38" s="40">
         <v>70</v>
@@ -3514,10 +3519,10 @@
         <v>4</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J38" s="36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3531,8 +3536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3583,7 +3588,7 @@
         <v>54</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.8" x14ac:dyDescent="0.35">
@@ -3606,7 +3611,7 @@
         <v>61</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.8" x14ac:dyDescent="0.35">
@@ -3629,7 +3634,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.8" x14ac:dyDescent="0.35">
@@ -3650,7 +3655,7 @@
         <v>58</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3714,7 +3719,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16.8" x14ac:dyDescent="0.35">
@@ -3733,7 +3738,7 @@
         <v>57</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16.8" x14ac:dyDescent="0.35">
@@ -3752,7 +3757,7 @@
         <v>56</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.8" x14ac:dyDescent="0.35">
@@ -3771,7 +3776,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="43" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3788,7 +3793,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="41" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3805,7 +3810,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="47" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3822,7 +3827,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="47" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3839,7 +3844,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="48" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -3856,7 +3861,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,7 +3892,7 @@
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3904,7 +3909,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3921,7 +3926,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="49" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3938,7 +3943,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="50" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3969,7 +3974,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="41" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3986,7 +3991,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="41" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4029,7 +4034,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="49" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -4044,7 +4049,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -4059,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -4074,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4083,7 +4088,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -4095,13 +4100,13 @@
         <v>28</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -4110,13 +4115,13 @@
         <v>29</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4156,7 +4161,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E2" s="3"/>
     </row>
@@ -4171,7 +4176,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E3" s="45" t="s">
         <v>28</v>
@@ -4191,7 +4196,7 @@
         <v>94</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
